--- a/biology/Botanique/Hymenolobium/Hymenolobium.xlsx
+++ b/biology/Botanique/Hymenolobium/Hymenolobium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hymenolobium, aussi connu sous son nom brésilien d’Angelim, est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire des régions tropicales d'Amérique centrale et d'Amérique du Sud, qui comprend une quinzaine d'espèces acceptées[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hymenolobium, aussi connu sous son nom brésilien d’Angelim, est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire des régions tropicales d'Amérique centrale et d'Amérique du Sud, qui comprend une quinzaine d'espèces acceptées.
 En Guyane, on nomme certaines espèces du genre « saint-martin jaune » (ou saint-martin gris).
-Ce sont des arbres de grande taille, généralement émergents au-dessus de la canopée, qui se rencontrent dans les forêts pluviales tropicales en plaine[3]. Ils sont exploités pour leur bois, commercialisé comme bois d'œuvre sous le nom d'« angelim »[4].
-Comme l'ont montré Darlyne Murawski et F. Hallé, le saint-martin jaune peut subir des mutations somatiques, et peut donc posséder plusieurs génotypes[5], chacun correspondant à un groupe de branches.
+Ce sont des arbres de grande taille, généralement émergents au-dessus de la canopée, qui se rencontrent dans les forêts pluviales tropicales en plaine. Ils sont exploités pour leur bois, commercialisé comme bois d'œuvre sous le nom d'« angelim ».
+Comme l'ont montré Darlyne Murawski et F. Hallé, le saint-martin jaune peut subir des mutations somatiques, et peut donc posséder plusieurs génotypes, chacun correspondant à un groupe de branches.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (18 décembre 2018)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (18 décembre 2018) :
 Hymenolobium alagoanum Ducke
 Hymenolobium elatum Ducke
 Hymenolobium excelsum Ducke
